--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luozhenya/tabtoy/v2/example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921DABD8-6E9E-D540-95AD-6BAA42AB87BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14835"/>
+    <workbookView xWindow="-37040" yWindow="3480" windowWidth="28800" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -16,18 +22,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -35,21 +43,75 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果ID有重复, 将报错</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>有重复</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>将报错</t>
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -57,21 +119,84 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Default特性可以不依赖proto3实现默认值功能, 注意值使用字符串</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Default</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>特性可以不依赖</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>proto3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实现默认值功能</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>注意值使用字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -80,6 +205,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,13 +213,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -102,6 +229,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,13 +237,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -124,6 +253,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,13 +261,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -146,6 +277,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,13 +286,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -169,6 +302,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -176,13 +310,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -191,6 +326,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -203,19 +339,20 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -224,6 +361,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -231,13 +369,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -245,21 +385,35 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-列可以自由调整位置</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>列可以自由调整位置</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -267,21 +421,74 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="宋体"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-别名,字段在使用时, 可直接使用别名</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>别名</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>,</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>字段在使用时</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>可直接使用别名</t>
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -290,6 +497,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -302,7 +510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -372,6 +580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[</t>
@@ -381,6 +590,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -390,16 +600,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Prop</t>
     </r>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true</t>
-  </si>
-  <si>
-    <t>MakeIndex:true 自定义tag: "支持go的struct tag"</t>
   </si>
   <si>
     <t>Default: "100"</t>
@@ -452,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X</t>
@@ -461,6 +667,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>: 100 Y:89</t>
@@ -475,6 +682,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -484,6 +692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -493,6 +702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -502,6 +712,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -511,6 +722,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -522,6 +734,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>攻击值:</t>
@@ -531,6 +744,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
@@ -580,77 +794,112 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>lua导出模式</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>攻击速率</t>
+  </si>
+  <si>
+    <t>ExType</t>
+  </si>
+  <si>
+    <t>额外类型</t>
+  </si>
+  <si>
+    <t>攻击值</t>
+  </si>
+  <si>
     <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>lua导出模式</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>攻击速率</t>
-  </si>
-  <si>
-    <t>ExType</t>
-  </si>
-  <si>
-    <t>额外类型</t>
-  </si>
-  <si>
-    <t>攻击值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true StandKey:true</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeIndex:true 自定义tag: "支持go的struct tag" StandAlias:true</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hl</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandName:true</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,177 +911,68 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,194 +985,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1055,255 +1009,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,69 +1034,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1393,14 +1064,20 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1799,31 +1476,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
-    <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="15.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="13" width="21.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="43.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.5" style="2" customWidth="1"/>
+    <col min="8" max="10" width="15.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="14" width="21.83203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="43.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1831,43 +1508,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1875,298 +1555,319 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3"/>
+      <c r="L3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3"/>
-      <c r="K3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="H5" s="2">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.8</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2">
+      <c r="G6" s="4"/>
+      <c r="H6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.7</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
+      <c r="G7" s="4"/>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:10">
+    <row r="8" spans="1:15" ht="36">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="4"/>
-      <c r="J8" s="2" t="s">
-        <v>50</v>
+      <c r="G8" s="4"/>
+      <c r="K8" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="4">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
+      <c r="G9" s="4"/>
+      <c r="K9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
+    <col min="2" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2174,84 +1875,80 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4"/>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/v2/example/Sample.xlsx
+++ b/v2/example/Sample.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luozhenya/tabtoy/v2/example/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921DABD8-6E9E-D540-95AD-6BAA42AB87BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37040" yWindow="3480" windowWidth="28800" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -22,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +29,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -45,65 +38,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>有重复</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>将报错</t>
+如果ID有重复, 将报错</t>
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +53,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -121,82 +62,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Default</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>特性可以不依赖</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>proto3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>实现默认值功能</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>注意值使用字符串</t>
+Default特性可以不依赖proto3实现默认值功能, 注意值使用字符串</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -205,7 +84,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -213,14 +91,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="J5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -229,7 +106,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -237,14 +113,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N5" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -253,7 +128,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -261,14 +135,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+    <author>Davy</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -277,91 +161,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字符串中的回车符会被自动转义为"\n", 在读取时, 以回车符方式读取
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-浮点数的百分比显示时, 导出的依然是浮点数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-多个单元格 repeated 数值会被合并到一个字段中</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Administrator</author>
-    <author>Davy</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -369,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +176,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -387,25 +185,14 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>列可以自由调整位置</t>
+列可以自由调整位置</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="E2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -413,7 +200,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Davy:</t>
@@ -423,72 +209,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>别名</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>,</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>字段在使用时</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>可直接使用别名</t>
+别名,字段在使用时, 可直接使用别名</t>
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -497,7 +231,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -510,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>ID</t>
   </si>
@@ -580,7 +313,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[</t>
@@ -590,7 +322,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>]</t>
@@ -600,11 +331,16 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Prop</t>
     </r>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true StandKey:true</t>
+  </si>
+  <si>
+    <t>MakeIndex:true 自定义tag: "支持go的struct tag" StandAlias:true</t>
   </si>
   <si>
     <t>Default: "100"</t>
@@ -657,7 +393,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>X</t>
@@ -667,7 +402,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>: 100 Y:89</t>
@@ -682,7 +416,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -692,7 +425,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -702,7 +434,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6</t>
@@ -712,7 +443,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>;</t>
@@ -722,7 +452,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>7</t>
@@ -734,7 +463,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>攻击值:</t>
@@ -744,7 +472,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
@@ -757,28 +484,12 @@
     <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
   </si>
   <si>
-    <t>葫芦\n娃</t>
+    <t>邋遢大王</t>
   </si>
   <si>
     <t>猪八戒</t>
   </si>
   <si>
-    <t>舒"克"</t>
-  </si>
-  <si>
-    <t>沙僧</t>
-  </si>
-  <si>
-    <t>贝
-塔</t>
-  </si>
-  <si>
-    <t>孙悟空</t>
-  </si>
-  <si>
-    <t>邋遢大王</t>
-  </si>
-  <si>
     <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
   </si>
   <si>
@@ -794,6 +505,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Alias</t>
+  </si>
+  <si>
     <t>Default</t>
   </si>
   <si>
@@ -849,57 +563,19 @@
   </si>
   <si>
     <t>攻击值</t>
-  </si>
-  <si>
-    <t>Alias</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepeatCheck:true MakeIndex:true StandKey:true</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakeIndex:true 自定义tag: "支持go的struct tag" StandAlias:true</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Field</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hm</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>hl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>BT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>StandName:true</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,68 +587,180 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,8 +773,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1009,13 +983,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,62 +1244,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="2886075"/>
-          <a:ext cx="5181600" cy="1171575"/>
+          <a:off x="2498090" y="1830705"/>
+          <a:ext cx="4446270" cy="1011555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1476,479 +1727,405 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="5" width="20.1640625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.5" style="2" customWidth="1"/>
-    <col min="8" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
-    <col min="12" max="14" width="21.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="43.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.6634615384615" style="3" customWidth="1"/>
+    <col min="2" max="4" width="20.1634615384615" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.5" style="3" customWidth="1"/>
+    <col min="7" max="9" width="15.6634615384615" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.6634615384615" style="3" customWidth="1"/>
+    <col min="11" max="13" width="21.8365384615385" style="3" customWidth="1"/>
+    <col min="14" max="14" width="43.8365384615385" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15" spans="1:14">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+    <row r="3" ht="15" customHeight="1" spans="1:14">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3"/>
-      <c r="L3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="2" t="s">
-        <v>23</v>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3"/>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="2">
+    <row r="5" ht="15" spans="1:14">
+      <c r="A5" s="3">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
         <v>0.6</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="I5" s="2">
+      <c r="F5" s="5"/>
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="M5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2">
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2">
-        <v>102</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="K7" s="2" t="s">
+      <c r="F6" s="5"/>
+      <c r="J6" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="36">
-      <c r="A8" s="2">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="2">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="K9" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="3" width="11.6634615384615" customWidth="1"/>
+    <col min="4" max="6" width="13.1634615384615" customWidth="1"/>
+    <col min="7" max="7" width="29.1634615384615" customWidth="1"/>
+    <col min="8" max="8" width="28.1634615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>